--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBF34DE-8718-4232-904F-94B0D6630A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425E5524-E116-49B4-8B63-DF79E405F78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -592,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -712,6 +712,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,12 +1072,12 @@
       <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
@@ -1093,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="23">
-        <v>0.2</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1108,15 +1111,17 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>8</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.4</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1192,7 +1197,7 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.2</v>
+        <v>0.21477500000000002</v>
       </c>
       <c r="K8" s="19">
         <v>0.2</v>
@@ -1223,15 +1228,15 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.36338028169014086</v>
+        <v>0.39022500000000004</v>
       </c>
       <c r="K9" s="19">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.35000000000000003</v>
+        <v>0.375</v>
       </c>
       <c r="L9" s="15">
         <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>3.6857142857142855</v>
+        <v>3.44</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1255,15 +1260,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.14084507042253522</v>
+        <v>0.15125000000000002</v>
       </c>
       <c r="K10" s="19">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.125</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L10" s="15">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>4</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1281,12 +1286,12 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G12" s="60" t="s">
+      <c r="G12" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1318,19 +1323,21 @@
         <v>5</v>
       </c>
       <c r="J14" s="6">
-        <v>0.2</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
       <c r="H15" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="6">
-        <v>0.56999999999999995</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1364,7 +1371,7 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.11144866385372712</v>
+        <v>0.12330774078218036</v>
       </c>
       <c r="K17" s="19">
         <v>0.1</v>
@@ -1387,15 +1394,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.19690576652601965</v>
+        <v>0.21785819926180278</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.17500000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>2.8571428571428568</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1411,15 +1418,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.2796061884669479</v>
+        <v>0.30935864295175991</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.27500000000000002</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>2.5818181818181816</v>
+        <v>2.3666666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
@@ -1484,12 +1491,12 @@
       <c r="E3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
@@ -1765,12 +1772,12 @@
       <c r="K17" s="33"/>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="61" t="s">
+      <c r="G36" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="58"/>
-      <c r="J36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="60"/>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G37" s="34"/>
@@ -1953,12 +1960,12 @@
       <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425E5524-E116-49B4-8B63-DF79E405F78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C7093-A08B-4732-99C3-DA95478899BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -1053,9 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1200,6 +1198,7 @@
         <v>0.21477500000000002</v>
       </c>
       <c r="K8" s="19">
+        <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
         <v>0.2</v>
       </c>
       <c r="L8" s="15">
@@ -1374,6 +1373,7 @@
         <v>0.12330774078218036</v>
       </c>
       <c r="K17" s="19">
+        <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
         <v>0.1</v>
       </c>
       <c r="L17" s="15">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645C7093-A08B-4732-99C3-DA95478899BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DF52E-8252-40C3-9BC6-6C9226DBCE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>8</v>
@@ -1195,15 +1195,15 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.21477500000000002</v>
+        <v>0.60500000000000009</v>
       </c>
       <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="15">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>3.55</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1227,15 +1227,15 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.39022500000000004</v>
+        <v>1.0992253521126762</v>
       </c>
       <c r="K9" s="19">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="15">
         <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>3.44</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.15125000000000002</v>
+        <v>0.42605633802816906</v>
       </c>
       <c r="K10" s="19">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.15000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="15">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>3.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>8</v>
@@ -1370,15 +1370,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.12330774078218036</v>
+        <v>1.7379082834874011</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>2.8299999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1394,15 +1394,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.21785819926180278</v>
+        <v>3.0705093347833943</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1418,15 +1418,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.30935864295175991</v>
+        <v>4.3601232553924198</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>2.3666666666666663</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3DF52E-8252-40C3-9BC6-6C9226DBCE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD45F71B-67D6-4F36-94EA-0E4B59929432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>8</v>
@@ -1195,15 +1195,15 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.60500000000000009</v>
+        <v>0.21477500000000002</v>
       </c>
       <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="15">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>1.7749999999999999</v>
+        <v>3.55</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1227,15 +1227,15 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>1.0992253521126762</v>
+        <v>0.39022500000000004</v>
       </c>
       <c r="K9" s="19">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
       <c r="L9" s="15">
         <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>3.2250000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1259,15 +1259,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.42605633802816906</v>
+        <v>0.15125000000000002</v>
       </c>
       <c r="K10" s="19">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.4</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L10" s="15">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>1.25</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G15" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>8</v>
@@ -1370,15 +1370,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>1.7379082834874011</v>
+        <v>0.12330774078218036</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>0.56599999999999995</v>
+        <v>2.8299999999999996</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1394,15 +1394,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>3.0705093347833943</v>
+        <v>0.21785819926180278</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1418,15 +1418,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>4.3601232553924198</v>
+        <v>0.30935864295175991</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.5</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>1.42</v>
+        <v>2.3666666666666663</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD45F71B-67D6-4F36-94EA-0E4B59929432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DC33E-FA77-45EF-9F88-F5B593E49E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7DC33E-FA77-45EF-9F88-F5B593E49E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77077DBA-4559-4926-B35D-C1B6E585F9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -1109,9 +1109,7 @@
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
+      <c r="G5" s="3"/>
       <c r="H5" s="57" t="s">
         <v>8</v>
       </c>
@@ -1195,15 +1193,15 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.21477500000000002</v>
+        <v>0.60500000000000009</v>
       </c>
       <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="15">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>3.55</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1227,15 +1225,15 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.39022500000000004</v>
+        <v>1.0992253521126762</v>
       </c>
       <c r="K9" s="19">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.375</v>
+        <v>0.4</v>
       </c>
       <c r="L9" s="15">
         <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>3.44</v>
+        <v>3.2250000000000001</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1259,15 +1257,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.15125000000000002</v>
+        <v>0.42605633802816906</v>
       </c>
       <c r="K10" s="19">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.15000000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="L10" s="15">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>3.333333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1326,9 +1324,7 @@
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
+      <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
         <v>8</v>
       </c>
@@ -1370,15 +1366,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.12330774078218036</v>
+        <v>1.7379082834874011</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>2.8299999999999996</v>
+        <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1394,15 +1390,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.21785819926180278</v>
+        <v>3.0705093347833943</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>2.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1418,15 +1414,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.30935864295175991</v>
+        <v>4.3601232553924198</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.30000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>2.3666666666666663</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77077DBA-4559-4926-B35D-C1B6E585F9B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51AE539-BA3D-4B7D-8CA0-A063B25D7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51AE539-BA3D-4B7D-8CA0-A063B25D7D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E9C1AB-8660-41AB-A5FF-084AF1680345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -1088,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="23">
-        <v>0.60499999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1111,13 +1111,13 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.60499999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.60500000000000009</v>
+        <v>0.42599999999999993</v>
       </c>
       <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>1.0992253521126762</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="K9" s="19">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.42605633802816906</v>
+        <v>0.3</v>
       </c>
       <c r="K10" s="19">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.4</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="L10" s="15">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>1.25</v>
+        <v>1.6666666666666665</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1320,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="6">
-        <v>0.60499999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
@@ -1366,15 +1366,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>1.7379082834874011</v>
+        <v>0.11144866385372712</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>0.56599999999999995</v>
+        <v>2.8299999999999996</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1390,15 +1390,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>3.0705093347833943</v>
+        <v>0.19690576652601965</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.5</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>1</v>
+        <v>2.8571428571428568</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1414,15 +1414,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>4.3601232553924198</v>
+        <v>0.2796061884669479</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.5</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>1.42</v>
+        <v>2.5818181818181816</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E9C1AB-8660-41AB-A5FF-084AF1680345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D00777-5B4C-4282-9030-208E13FE6968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -1088,13 +1088,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="23">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1193,15 +1193,15 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.42599999999999993</v>
+        <v>0.15</v>
       </c>
       <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>0.4</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="L8" s="15">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>1.7749999999999999</v>
+        <v>4.7333333333333325</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1225,15 +1225,15 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.77400000000000002</v>
+        <v>0.27253521126760566</v>
       </c>
       <c r="K9" s="19">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="L9" s="15">
         <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>3.2250000000000001</v>
+        <v>5.16</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.3</v>
+        <v>0.10563380281690141</v>
       </c>
       <c r="K10" s="19">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.30000000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="L10" s="15">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>1.6666666666666665</v>
+        <v>5</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1320,7 +1320,7 @@
         <v>5</v>
       </c>
       <c r="J14" s="6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
@@ -1366,15 +1366,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.11144866385372712</v>
+        <v>7.6021746082507183E-2</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>0.1</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>2.8299999999999996</v>
+        <v>3.7733333333333325</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1390,15 +1390,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.19690576652601965</v>
+        <v>0.13431403901503036</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.17500000000000002</v>
+        <v>0.125</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>2.8571428571428568</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1414,15 +1414,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.2796061884669479</v>
+        <v>0.19072593540134311</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.27500000000000002</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>2.5818181818181816</v>
+        <v>4.0571428571428569</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D00777-5B4C-4282-9030-208E13FE6968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00518748-957C-4C87-8BF3-BE5ACFEF4EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
   <si>
     <t>Acero</t>
   </si>
@@ -1087,14 +1087,14 @@
       <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>4</v>
+      <c r="H4" s="21">
+        <v>8</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="23">
-        <v>0.15</v>
+        <v>0.60499999999999998</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1117,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1134,13 +1134,13 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1191,17 +1191,17 @@
       <c r="I8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="19" t="e">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.15</v>
-      </c>
-      <c r="K8" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="K8" s="19" t="e">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="L8" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="L8" s="15" t="e">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>4.7333333333333325</v>
+        <v>#N/A</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1223,17 +1223,17 @@
       <c r="I9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="19" t="e">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.27253521126760566</v>
-      </c>
-      <c r="K9" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="K9" s="19" t="e">
         <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.25</v>
-      </c>
-      <c r="L9" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="L9" s="15" t="e">
         <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>5.16</v>
+        <v>#N/A</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1255,17 +1255,17 @@
       <c r="I10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="19" t="e">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.10563380281690141</v>
-      </c>
-      <c r="K10" s="19">
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="19" t="e">
         <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="15">
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="15" t="e">
         <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>5</v>
+        <v>#N/A</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1313,14 +1313,14 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>4</v>
+      <c r="H14" s="4">
+        <v>8</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="6">
-        <v>0.15</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
@@ -1366,15 +1366,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>7.6021746082507183E-2</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>7.5000000000000011E-2</v>
+        <v>-0.30000000000000004</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>3.7733333333333325</v>
+        <v>-0.94333333333333313</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1390,15 +1390,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.13431403901503036</v>
+        <v>-0.49469964664310967</v>
       </c>
       <c r="K18" s="19">
         <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.125</v>
+        <v>-0.5</v>
       </c>
       <c r="L18" s="15">
         <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1414,15 +1414,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.19072593540134311</v>
+        <v>-0.7024734982332157</v>
       </c>
       <c r="K19" s="19">
         <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>0.17500000000000002</v>
+        <v>-0.72500000000000009</v>
       </c>
       <c r="L19" s="15">
         <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>4.0571428571428569</v>
+        <v>-0.97931034482758605</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00518748-957C-4C87-8BF3-BE5ACFEF4EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1DAA5-3497-4251-8C96-19D606F51359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F062FB74-701C-424C-8982-2B895B398105}"/>
   </bookViews>
   <sheets>
-    <sheet name="Convertidor" sheetId="1" r:id="rId1"/>
-    <sheet name="Convertidor (Aporte Tral.)" sheetId="2" r:id="rId2"/>
-    <sheet name="Convertidor (Ac. Cont.)" sheetId="3" r:id="rId3"/>
-    <sheet name="Viguetas PRODAC" sheetId="4" r:id="rId4"/>
+    <sheet name="Convertidor" sheetId="4" r:id="rId1"/>
+    <sheet name="Convertidor (Aporte Tral.)" sheetId="1" r:id="rId2"/>
+    <sheet name="Convertidor (Ac. Cont.)" sheetId="5" r:id="rId3"/>
+    <sheet name="Viguetas PRODAC" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,8 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,147 +37,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
   <si>
     <t>Acero</t>
   </si>
   <si>
+    <t>Convertidor de cuantía</t>
+  </si>
+  <si>
+    <t>1/2"</t>
+  </si>
+  <si>
+    <t>3/8"</t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>5/8"</t>
+  </si>
+  <si>
+    <t>3/4"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>4.5mm</t>
+  </si>
+  <si>
+    <t>Espaciamiento final</t>
+  </si>
+  <si>
+    <t>Cuantía final</t>
+  </si>
+  <si>
     <t>Area (cm2)</t>
   </si>
   <si>
     <t>Convertidor de cuantía (Longitudinal)</t>
   </si>
   <si>
-    <t>6mm</t>
-  </si>
-  <si>
-    <t>3/8"</t>
-  </si>
-  <si>
-    <t>@</t>
-  </si>
-  <si>
-    <t>8mm</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>1/2"</t>
-  </si>
-  <si>
-    <t>12mm</t>
-  </si>
-  <si>
-    <t>5/8"</t>
-  </si>
-  <si>
-    <t>Espaciamiento final</t>
-  </si>
-  <si>
-    <t>Cuantía final</t>
-  </si>
-  <si>
-    <t>3/4"</t>
-  </si>
-  <si>
     <t>Convertidor de cuantía (Transversal - Distribución)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>TA-1</t>
+  </si>
+  <si>
+    <t>As (cm2)</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>EQUIVALENCIA</t>
+  </si>
+  <si>
+    <t>TA-2</t>
+  </si>
+  <si>
+    <t>TA-3</t>
+  </si>
+  <si>
+    <t>TA-4</t>
+  </si>
+  <si>
+    <t>TA-5</t>
+  </si>
+  <si>
+    <t>TA-6</t>
+  </si>
+  <si>
+    <t>TA-7</t>
+  </si>
+  <si>
+    <t>TA-8</t>
+  </si>
+  <si>
+    <t>TB-1</t>
+  </si>
+  <si>
+    <t>TC-1</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.20</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.30</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.275</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.225</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.175</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.15</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.125</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.10</t>
+  </si>
+  <si>
+    <t>1Ø3/8"@.40</t>
+  </si>
+  <si>
+    <t>1Ø1/2"@.15</t>
+  </si>
+  <si>
+    <t>Acero de continuidad (+20%) - Macizas</t>
+  </si>
+  <si>
+    <t>Ahorro</t>
+  </si>
+  <si>
+    <t>kg/m2</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Optimización</t>
   </si>
   <si>
     <t>P. N. (kg/m)</t>
-  </si>
-  <si>
-    <t>Convertidor de cuantía</t>
-  </si>
-  <si>
-    <t>4.5mm</t>
-  </si>
-  <si>
-    <t>Optimización</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Ahorro</t>
-  </si>
-  <si>
-    <t>kg/m2</t>
-  </si>
-  <si>
-    <t>Acero de continuidad (+20%) - Macizas</t>
-  </si>
-  <si>
-    <t>TIPO</t>
-  </si>
-  <si>
-    <t>As (cm2)</t>
-  </si>
-  <si>
-    <t>EQUIVALENCIA</t>
-  </si>
-  <si>
-    <t>TA-1</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.40</t>
-  </si>
-  <si>
-    <t>TA-2</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.30</t>
-  </si>
-  <si>
-    <t>TA-3</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.275</t>
-  </si>
-  <si>
-    <t>TA-4</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.225</t>
-  </si>
-  <si>
-    <t>TA-5</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.20</t>
-  </si>
-  <si>
-    <t>TA-6</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.175</t>
-  </si>
-  <si>
-    <t>TA-7</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.15</t>
-  </si>
-  <si>
-    <t>TA-8</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.125</t>
-  </si>
-  <si>
-    <t>TB-1</t>
-  </si>
-  <si>
-    <t>1Ø3/8"@.10</t>
-  </si>
-  <si>
-    <t>TC-1</t>
-  </si>
-  <si>
-    <t>1Ø1/2"@.15</t>
   </si>
 </sst>
 </file>
@@ -188,7 +189,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +208,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -564,35 +571,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -712,14 +695,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1050,10 +1028,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362C9FB4-712B-474F-B0E5-BFF340728471}">
   <dimension ref="C2:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1062,24 +1042,24 @@
     <col min="12" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="30">
         <v>0.28299999999999997</v>
@@ -1087,19 +1067,19 @@
       <c r="G4" s="20">
         <v>1</v>
       </c>
-      <c r="H4" s="21">
-        <v>8</v>
+      <c r="H4" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="23">
-        <v>0.60499999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="25" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1090,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="5" t="s">
@@ -1122,9 +1102,9 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="26">
         <v>0.71</v>
@@ -1134,20 +1114,20 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="26">
         <v>1.1299999999999999</v>
@@ -1157,7 +1137,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>5</v>
@@ -1166,10 +1146,10 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -1177,7 +1157,7 @@
     </row>
     <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="26">
         <v>1.29</v>
@@ -1186,22 +1166,22 @@
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="19" t="e">
+      <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="19" t="e">
+        <v>0.15</v>
+      </c>
+      <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="15" t="e">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="L8" s="15">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>#N/A</v>
+        <v>4.7333333333333325</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1209,7 +1189,7 @@
     </row>
     <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="26">
         <v>1.99</v>
@@ -1218,22 +1198,22 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J9" s="19" t="e">
+      <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="19" t="e">
-        <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="15" t="e">
-        <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>#N/A</v>
+        <v>0.27253521126760566</v>
+      </c>
+      <c r="K9" s="19">
+        <f t="shared" ref="K9:K10" si="0">IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
+        <v>0.25</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" ref="L9:L10" si="1">VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
+        <v>5.16</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1241,7 +1221,7 @@
     </row>
     <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="26">
         <v>2.84</v>
@@ -1255,23 +1235,23 @@
       <c r="I10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J10" s="19" t="e">
+      <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" s="19" t="e">
-        <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="15" t="e">
-        <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
-        <v>#N/A</v>
+        <v>0.10563380281690141</v>
+      </c>
+      <c r="K10" s="19">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="27">
         <v>1</v>
       </c>
@@ -1283,12 +1263,12 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="G12" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="G12" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -1299,7 +1279,7 @@
         <v>-1</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="36" t="s">
         <v>5</v>
@@ -1313,20 +1293,20 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="4">
-        <v>8</v>
+      <c r="H14" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="6">
-        <v>0.60499999999999998</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>5</v>
@@ -1335,10 +1315,10 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="3:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>5</v>
@@ -1347,34 +1327,34 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L16" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="G17" s="12">
         <v>1</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>5</v>
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>-0.28000000000000003</v>
+        <v>7.6021746082507183E-2</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>-0.30000000000000004</v>
+        <v>7.5000000000000011E-2</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>-0.94333333333333313</v>
+        <v>3.7733333333333325</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1390,15 +1370,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>-0.49469964664310967</v>
+        <v>0.13431403901503036</v>
       </c>
       <c r="K18" s="19">
-        <f>IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>-0.5</v>
+        <f t="shared" ref="K18:K19" si="2">IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
+        <v>0.125</v>
       </c>
       <c r="L18" s="15">
-        <f>VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>-1</v>
+        <f t="shared" ref="L18:L19" si="3">VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1407,34 +1387,35 @@
         <v>1</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19" s="14" t="s">
         <v>5</v>
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>-0.7024734982332157</v>
+        <v>0.19072593540134311</v>
       </c>
       <c r="K19" s="19">
-        <f>IF(IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025))&gt;0.5,0.5,IF(ABS(J19-_xlfn.CEILING.MATH(J19,0.025))&gt;0,_xlfn.FLOOR.MATH(J19,0.025),_xlfn.CEILING.MATH(J19,0.025)))</f>
-        <v>-0.72500000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0.17500000000000002</v>
       </c>
       <c r="L19" s="15">
-        <f>VLOOKUP(H19,$C$4:$D$11,2,FALSE)/K19</f>
-        <v>-0.97931034482758605</v>
+        <f t="shared" si="3"/>
+        <v>4.0571428571428569</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C20" s="17"/>
       <c r="M20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C21" s="16"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="G12:J12"/>
@@ -1444,14 +1425,14 @@
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7 H13:H16" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7 H13:H16" xr:uid="{967EAC2E-DB56-4C49-9B5C-7F79B26C0746}">
       <formula1>$C$4:$C$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H10" xr:uid="{F266154A-6695-481A-832A-F4CDE04110F9}">
       <formula1>$C$5:$C$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H19" xr:uid="{F97AB317-8963-4EF2-967A-A0DF3A008335}">
       <formula1>$C$4:$C$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -1460,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{514376CE-FE8C-41E2-99C3-471371B29155}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="C2:R43"/>
   <sheetViews>
@@ -1476,27 +1457,27 @@
     <col min="12" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>1</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
+      <c r="J3" s="59"/>
     </row>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D4" s="30">
         <v>0.159</v>
@@ -1506,7 +1487,7 @@
         <v>-2</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I4" s="41" t="s">
         <v>5</v>
@@ -1517,7 +1498,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="25" t="s">
         <v>6</v>
       </c>
@@ -1545,9 +1526,9 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="26">
         <v>0.71</v>
@@ -1560,7 +1541,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
@@ -1571,9 +1552,9 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="26">
         <v>1.1299999999999999</v>
@@ -1584,7 +1565,7 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>5</v>
@@ -1593,10 +1574,10 @@
         <v>0.6</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1604,7 +1585,7 @@
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="26">
         <v>1.29</v>
@@ -1616,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>5</v>
@@ -1639,7 +1620,7 @@
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="26">
         <v>1.99</v>
@@ -1649,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>5</v>
@@ -1659,11 +1640,11 @@
         <v>4.6834394904458607</v>
       </c>
       <c r="K9" s="19">
-        <f>IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
+        <f t="shared" ref="K9:K10" si="0">IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
         <v>0.4</v>
       </c>
       <c r="L9" s="15">
-        <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
+        <f t="shared" ref="L9:L10" si="1">VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
         <v>3.2250000000000001</v>
       </c>
       <c r="P9" s="1"/>
@@ -1672,7 +1653,7 @@
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="26">
         <v>2.84</v>
@@ -1692,18 +1673,18 @@
         <v>1.8152866242038219</v>
       </c>
       <c r="K10" s="19">
-        <f>IF(IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))&gt;0.4,0.4,IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025)))</f>
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
       <c r="L10" s="15">
-        <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
+        <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="27">
         <v>1</v>
       </c>
@@ -1717,7 +1698,7 @@
     </row>
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G12" s="54" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H12" s="52" t="s">
         <v>6</v>
@@ -1730,12 +1711,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="13" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G13" s="55" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="H13" s="53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="50" t="s">
         <v>5</v>
@@ -1745,19 +1726,19 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G15" s="47" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H15" s="56">
         <f>-VLOOKUP(H12,C4:E11,3,FALSE)/J12+VLOOKUP(H13,C4:E11,3,FALSE)/J13</f>
         <v>0.41250000000000009</v>
       </c>
       <c r="I15" s="46" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K15" s="17"/>
     </row>
@@ -1768,17 +1749,17 @@
       <c r="K17" s="33"/>
     </row>
     <row r="36" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="62" t="s">
-        <v>17</v>
+      <c r="G36" s="59" t="s">
+        <v>1</v>
       </c>
       <c r="H36" s="59"/>
       <c r="I36" s="59"/>
-      <c r="J36" s="60"/>
+      <c r="J36" s="59"/>
     </row>
     <row r="37" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G37" s="34"/>
       <c r="H37" s="35" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I37" s="41" t="s">
         <v>5</v>
@@ -1789,62 +1770,62 @@
     </row>
     <row r="38" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G38" s="3">
-        <f t="shared" ref="G38:J40" si="0">G5</f>
+        <f>G5</f>
         <v>1</v>
       </c>
       <c r="H38" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H38:J38" si="2">H5</f>
         <v>8mm</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>@</v>
       </c>
       <c r="J38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="39" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G39:G40" si="3">G6</f>
         <v>0</v>
       </c>
       <c r="H39" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H39:J39" si="4">H6</f>
         <v>3/8"</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>@</v>
       </c>
       <c r="J39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
     </row>
     <row r="40" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H40" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H40:J40" si="5">H7</f>
         <v>1/2"</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>@</v>
       </c>
       <c r="J40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
       <c r="K40" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L40" s="24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="7:12" x14ac:dyDescent="0.25">
@@ -1852,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" s="14" t="s">
         <v>5</v>
@@ -1875,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I42" s="14" t="s">
         <v>5</v>
@@ -1885,11 +1866,11 @@
         <v>1.548</v>
       </c>
       <c r="K42" s="19">
-        <f>IF(IF(ABS(J42-_xlfn.CEILING.MATH(J42,0.025))&gt;0,_xlfn.FLOOR.MATH(J42,0.025),_xlfn.CEILING.MATH(J42,0.025))&gt;0.4,0.4,IF(ABS(J42-_xlfn.CEILING.MATH(J42,0.025))&gt;0,_xlfn.FLOOR.MATH(J42,0.025),_xlfn.CEILING.MATH(J42,0.025)))</f>
+        <f t="shared" ref="K42:K43" si="6">IF(IF(ABS(J42-_xlfn.CEILING.MATH(J42,0.025))&gt;0,_xlfn.FLOOR.MATH(J42,0.025),_xlfn.CEILING.MATH(J42,0.025))&gt;0.4,0.4,IF(ABS(J42-_xlfn.CEILING.MATH(J42,0.025))&gt;0,_xlfn.FLOOR.MATH(J42,0.025),_xlfn.CEILING.MATH(J42,0.025)))</f>
         <v>0.4</v>
       </c>
       <c r="L42" s="15">
-        <f>VLOOKUP(H42,$C$4:$D$11,2,FALSE)/K42</f>
+        <f t="shared" ref="L42:L43" si="7">VLOOKUP(H42,$C$4:$D$11,2,FALSE)/K42</f>
         <v>3.2250000000000001</v>
       </c>
     </row>
@@ -1908,24 +1889,25 @@
         <v>0.6</v>
       </c>
       <c r="K43" s="19">
-        <f>IF(IF(ABS(J43-_xlfn.CEILING.MATH(J43,0.025))&gt;0,_xlfn.FLOOR.MATH(J43,0.025),_xlfn.CEILING.MATH(J43,0.025))&gt;0.4,0.4,IF(ABS(J43-_xlfn.CEILING.MATH(J43,0.025))&gt;0,_xlfn.FLOOR.MATH(J43,0.025),_xlfn.CEILING.MATH(J43,0.025)))</f>
+        <f t="shared" si="6"/>
         <v>0.4</v>
       </c>
       <c r="L43" s="15">
-        <f>VLOOKUP(H43,$C$4:$D$11,2,FALSE)/K43</f>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
+    <mergeCell ref="G3:J3"/>
     <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H10 H12:H13 H41:H43" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H10 H41:H43 H12:H13" xr:uid="{991314A0-8328-4425-BDB1-EB5EEDDA0115}">
       <formula1>$C$5:$C$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7 H37" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7 H37" xr:uid="{23B6A5EF-4F07-4E1D-9522-10660D9BEDD9}">
       <formula1>$C$4:$C$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -1934,7 +1916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F88E1D3-C5C7-4D33-8B10-A0FC90EC73F0}">
   <dimension ref="C2:R19"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1948,24 +1930,24 @@
     <col min="12" max="13" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>41</v>
       </c>
       <c r="H3" s="59"/>
       <c r="I3" s="59"/>
-      <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="59"/>
+    </row>
+    <row r="4" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C4" s="29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="30">
         <v>0.28299999999999997</v>
@@ -1975,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" s="36" t="s">
         <v>5</v>
@@ -1986,7 +1968,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="25" t="s">
         <v>6</v>
       </c>
@@ -1998,7 +1980,7 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
@@ -2007,9 +1989,9 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="3:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="26">
         <v>0.71</v>
@@ -2028,9 +2010,9 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="3:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="26">
         <v>1.1299999999999999</v>
@@ -2040,25 +2022,25 @@
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="24" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="3:18" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="26">
         <v>1.29</v>
@@ -2090,7 +2072,7 @@
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" s="26">
         <v>1.99</v>
@@ -2099,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>5</v>
@@ -2109,11 +2091,11 @@
         <v>0.57494110718492353</v>
       </c>
       <c r="K9" s="19">
-        <f>IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))</f>
+        <f t="shared" ref="K9:K10" si="0">IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))</f>
         <v>0.55000000000000004</v>
       </c>
       <c r="L9" s="15">
-        <f>VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
+        <f t="shared" ref="L9:L10" si="1">VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
         <v>1.2909090909090908</v>
       </c>
       <c r="P9" s="1"/>
@@ -2122,7 +2104,7 @@
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="26">
         <v>2.84</v>
@@ -2131,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I10" s="14" t="s">
         <v>5</v>
@@ -2141,18 +2123,18 @@
         <v>1.0446113074204948</v>
       </c>
       <c r="K10" s="19">
-        <f>IF(ABS(J10-_xlfn.CEILING.MATH(J10,0.025))&gt;0,_xlfn.FLOOR.MATH(J10,0.025),_xlfn.CEILING.MATH(J10,0.025))</f>
+        <f t="shared" si="0"/>
         <v>1.0250000000000001</v>
       </c>
       <c r="L10" s="15">
-        <f>VLOOKUP(H10,$C$4:$D$11,2,FALSE)/K10</f>
+        <f t="shared" si="1"/>
         <v>1.2585365853658534</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="3:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="27">
         <v>1</v>
       </c>
@@ -2163,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>5</v>
@@ -2173,11 +2155,11 @@
         <v>1.6114546525323912</v>
       </c>
       <c r="K11" s="19">
-        <f>IF(ABS(J11-_xlfn.CEILING.MATH(J11,0.025))&gt;0,_xlfn.FLOOR.MATH(J11,0.025),_xlfn.CEILING.MATH(J11,0.025))</f>
+        <f t="shared" ref="K11" si="2">IF(ABS(J11-_xlfn.CEILING.MATH(J11,0.025))&gt;0,_xlfn.FLOOR.MATH(J11,0.025),_xlfn.CEILING.MATH(J11,0.025))</f>
         <v>1.6</v>
       </c>
       <c r="L11" s="15">
-        <f>VLOOKUP(H11,$C$4:$D$11,2,FALSE)/K11</f>
+        <f t="shared" ref="L11" si="3">VLOOKUP(H11,$C$4:$D$11,2,FALSE)/K11</f>
         <v>1.2437499999999999</v>
       </c>
       <c r="P11" s="1"/>
@@ -2187,7 +2169,7 @@
     <row r="12" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C12" s="17"/>
       <c r="O12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
@@ -2212,14 +2194,15 @@
       <c r="C19" s="16"/>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="G3:J3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H11" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H11" xr:uid="{6990326B-9D05-4488-BA65-A1DCECD7B26A}">
       <formula1>$C$5:$C$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H4:H7" xr:uid="{70F26A0D-2EEA-40AD-9FD5-77A4F7792BAE}">
       <formula1>$C$4:$C$10</formula1>
     </dataValidation>
   </dataValidations>
@@ -2228,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7E8C1-4020-41C6-BEED-DB86F431F2E5}">
   <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2242,54 +2225,54 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="40" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="39" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C4" s="39">
         <v>0.67</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C5" s="39">
         <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="39" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C6" s="39">
         <v>1.28</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="39" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C7" s="39">
         <v>1.52</v>
@@ -2301,77 +2284,78 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="39" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C8" s="39">
         <v>1.76</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F8" s="17"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C9" s="39">
         <v>1.87</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F9" s="17"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C10" s="39">
         <v>2.35</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C11" s="39">
         <v>2.8</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" s="17"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C12" s="39">
         <v>3.25</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12" s="17"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C13" s="39">
         <v>3.91</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F13" s="17"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD1DAA5-3497-4251-8C96-19D606F51359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4A50F-2430-4E80-A751-3E800742B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F062FB74-701C-424C-8982-2B895B398105}"/>
   </bookViews>
@@ -1074,7 +1074,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="23">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -1091,13 +1091,13 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1114,13 +1114,13 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1173,15 +1173,15 @@
       </c>
       <c r="J8" s="19">
         <f>(G8*VLOOKUP(H8,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="K8" s="19">
         <f>IF(IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025))&gt;0.4,0.4,IF(ABS(J8-_xlfn.CEILING.MATH(J8,0.025))&gt;0,_xlfn.FLOOR.MATH(J8,0.025),_xlfn.CEILING.MATH(J8,0.025)))</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="15">
         <f>VLOOKUP(H8,$C$4:$D$11,2,FALSE)/K8</f>
-        <v>4.7333333333333325</v>
+        <v>3.55</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -1205,15 +1205,15 @@
       </c>
       <c r="J9" s="19">
         <f>(G9*VLOOKUP(H9,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.27253521126760566</v>
+        <v>0.36338028169014086</v>
       </c>
       <c r="K9" s="19">
         <f t="shared" ref="K9:K10" si="0">IF(IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025))&gt;0.4,0.4,IF(ABS(J9-_xlfn.CEILING.MATH(J9,0.025))&gt;0,_xlfn.FLOOR.MATH(J9,0.025),_xlfn.CEILING.MATH(J9,0.025)))</f>
-        <v>0.25</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" ref="L9:L10" si="1">VLOOKUP(H9,$C$4:$D$11,2,FALSE)/K9</f>
-        <v>5.16</v>
+        <v>3.6857142857142855</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1237,15 +1237,15 @@
       </c>
       <c r="J10" s="19">
         <f>(G10*VLOOKUP(H10,$C$4:$D$11,2,FALSE))/((G4*VLOOKUP(H4,$C$4:$D$11,2,FALSE)/J4)+IFERROR((G5*VLOOKUP(H5,$C$4:$D$11,2,FALSE)/J5),0)+IFERROR((G6*VLOOKUP(H6,$C$4:$D$11,2,FALSE)/J6),0)+IFERROR((G7*VLOOKUP(H7,$C$4:$D$11,2,FALSE)/J7),0))</f>
-        <v>0.10563380281690141</v>
+        <v>0.14084507042253522</v>
       </c>
       <c r="K10" s="19">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="L10" s="15">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1300,19 +1300,19 @@
         <v>5</v>
       </c>
       <c r="J14" s="6">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J15" s="6">
-        <v>0.60499999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1346,15 +1346,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>7.6021746082507183E-2</v>
+        <v>0.11144866385372712</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>7.5000000000000011E-2</v>
+        <v>0.1</v>
       </c>
       <c r="L17" s="15">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>3.7733333333333325</v>
+        <v>2.8299999999999996</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">
@@ -1370,15 +1370,15 @@
       </c>
       <c r="J18" s="19">
         <f>(G18*VLOOKUP(H18,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.13431403901503036</v>
+        <v>0.19690576652601965</v>
       </c>
       <c r="K18" s="19">
         <f t="shared" ref="K18:K19" si="2">IF(IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025))&gt;0.5,0.5,IF(ABS(J18-_xlfn.CEILING.MATH(J18,0.025))&gt;0,_xlfn.FLOOR.MATH(J18,0.025),_xlfn.CEILING.MATH(J18,0.025)))</f>
-        <v>0.125</v>
+        <v>0.17500000000000002</v>
       </c>
       <c r="L18" s="15">
         <f t="shared" ref="L18:L19" si="3">VLOOKUP(H18,$C$4:$D$11,2,FALSE)/K18</f>
-        <v>4</v>
+        <v>2.8571428571428568</v>
       </c>
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.25">
@@ -1394,15 +1394,15 @@
       </c>
       <c r="J19" s="19">
         <f>(G19*VLOOKUP(H19,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.19072593540134311</v>
+        <v>0.2796061884669479</v>
       </c>
       <c r="K19" s="19">
         <f t="shared" si="2"/>
-        <v>0.17500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="3"/>
-        <v>4.0571428571428569</v>
+        <v>2.5818181818181816</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D4A50F-2430-4E80-A751-3E800742B7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C13DA-8658-4873-878A-8CB61DBEF37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F062FB74-701C-424C-8982-2B895B398105}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{F062FB74-701C-424C-8982-2B895B398105}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="4" r:id="rId1"/>
@@ -18,26 +18,17 @@
     <sheet name="Convertidor (Ac. Cont.)" sheetId="5" r:id="rId3"/>
     <sheet name="Viguetas PRODAC" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
   <si>
     <t>Acero</t>
   </si>
@@ -733,9 +724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -773,7 +764,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -879,7 +870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1021,7 +1012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1090,14 +1081,14 @@
         <v>7</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4" t="s">
-        <v>3</v>
+      <c r="H5" s="4">
+        <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>0.2</v>
+        <v>1.75</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1114,13 +1105,13 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1135,7 +1126,9 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1306,7 +1299,7 @@
     <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="G15" s="3"/>
       <c r="H15" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>5</v>
@@ -1318,13 +1311,13 @@
     <row r="16" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
       <c r="H16" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J16" s="18">
-        <v>0.56999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="K16" s="38" t="s">
         <v>13</v>
@@ -1336,7 +1329,7 @@
     <row r="17" spans="3:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C17" s="16"/>
       <c r="G17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="13" t="s">
         <v>4</v>
@@ -1346,15 +1339,15 @@
       </c>
       <c r="J17" s="19">
         <f>(G17*VLOOKUP(H17,$C$4:$D$10,2,FALSE))/((G13*VLOOKUP(H13,$C$4:$D$10,2,FALSE)/J13)+IFERROR((G14*VLOOKUP(H14,$C$4:$D$10,2,FALSE)/J14),0)+IFERROR((G15*VLOOKUP(H15,$C$4:$D$10,2,FALSE)/J15),0)+IFERROR((G16*VLOOKUP(H16,$C$4:$D$10,2,FALSE)/J16),0))</f>
-        <v>0.11144866385372712</v>
+        <v>0</v>
       </c>
       <c r="K17" s="19">
         <f>IF(IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025))&gt;0.5,0.5,IF(ABS(J17-_xlfn.CEILING.MATH(J17,0.025))&gt;0,_xlfn.FLOOR.MATH(J17,0.025),_xlfn.CEILING.MATH(J17,0.025)))</f>
-        <v>0.1</v>
-      </c>
-      <c r="L17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="15" t="e">
         <f>VLOOKUP(H17,$C$4:$D$11,2,FALSE)/K17</f>
-        <v>2.8299999999999996</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.25">

--- a/CONVERTIDOR.xlsx
+++ b/CONVERTIDOR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop\Desktop\ddocuments\pythonCAD\autocadAUT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5C13DA-8658-4873-878A-8CB61DBEF37F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A8EB71-AA71-4430-BB16-78D017E5D539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{F062FB74-701C-424C-8982-2B895B398105}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" xr2:uid="{F062FB74-701C-424C-8982-2B895B398105}"/>
   </bookViews>
   <sheets>
     <sheet name="Convertidor" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="47">
   <si>
     <t>Acero</t>
   </si>
@@ -1081,14 +1081,14 @@
         <v>7</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="4">
-        <v>1</v>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="6">
-        <v>1.75</v>
+        <v>0.4</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -1105,13 +1105,13 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="J6" s="6">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
